--- a/Project Outputs for PIC32MM-Breakout/BOM/Bill of Materials-PIC32MM-Breakout.xlsx
+++ b/Project Outputs for PIC32MM-Breakout/BOM/Bill of Materials-PIC32MM-Breakout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Open-Source\PIC32MM-Breakout\Project Outputs for PIC32MM-Breakout\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4672F0B-3C46-4DFF-B59D-961E5082FDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC9A59AD-4298-480A-8509-8D4F24AC1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37830" yWindow="540" windowWidth="19320" windowHeight="14760" xr2:uid="{3D2A279A-2490-4C43-9CCD-E794AE25E53C}"/>
+    <workbookView xWindow="10830" yWindow="2000" windowWidth="20850" windowHeight="18990" xr2:uid="{A82CD8C7-6286-46D0-99D6-6845705796F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PIC32MM-Break" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C6AEFC-2A8F-4C1A-A4EC-0949A3762E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E69A72-A786-4E4C-9133-356A788628B0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -585,6 +585,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>